--- a/biology/Médecine/Ganglion_lymphatique/Ganglion_lymphatique.xlsx
+++ b/biology/Médecine/Ganglion_lymphatique/Ganglion_lymphatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ganglions lymphatiques (dits « lymphonœuds » ou encore « nœuds lymphatiques » dans la nomenclature internationale, traduction du latin nodi lymphatici) sont des petits amas réniformes dont la taille varie de l'un à l'autre. On en dénombre chez l'humain environ 800, pour une masse totale de 500 à 800 g.
 Ils sont le lieu de prolifération et de différenciation des cellules immunitaires. Le premier rôle des vaisseaux lymphatiques est d’amener un antigène (dans la grande majorité des cas issu d’un pathogène) du tissu jusqu’aux ganglions, afin d’activer la réponse immunitaire spécifique des lymphocytes T et B.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ganglions lymphatiques sont situés le long du réseau lymphatique, regroupés en certains points « stratégiques » :
 les réseaux profonds : au niveau de l’abdomen, du thorax, du cou, etc. ;
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chacun des ganglions mesure normalement moins d’un centimètre chez l’humain, sauf en cas d’adénopathie.
 Les ganglions ont une structure plus ou moins globuleuse, et ils se décomposent en plusieurs zones (de la périphérie vers le centre) :
@@ -585,9 +601,11 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ganglions lymphatiques ont pour fonction la production des acteurs du système immunitaire : production d’anticorps, de cellules effectrices (douées de phagocytose) et de cellules mémoires[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ganglions lymphatiques ont pour fonction la production des acteurs du système immunitaire : production d’anticorps, de cellules effectrices (douées de phagocytose) et de cellules mémoires.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les lymphonœuds (ganglions lymphatiques) prennent le nom d'adénome s'ils sont hypertrophiques (palpables, de taille supra-centimétrique) et on parle d'adénopathie pour décrire une augmentation de taille pathologique.
 Les principales maladies pouvant être diagnostiquées via la présence d'adénopathies (par ordre de fréquence) :
